--- a/resources/experiment 2/metrics/R2/incidence/Enfermedad renal terminal (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Enfermedad renal terminal (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9299180591421669</v>
+        <v>0.9957218342903249</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9299180591421669</v>
+        <v>0.9956375856168691</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9299180591421669</v>
+        <v>0.9760214675634495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9983981029038561</v>
+        <v>0.9923110495414994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9983981029038561</v>
+        <v>0.9921908449967436</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9983981029038561</v>
+        <v>0.9731564244732521</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8461722273625579</v>
+        <v>0.9989430829149922</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8461722273625579</v>
+        <v>0.9986733503275795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8461722273625579</v>
+        <v>0.9982627847602258</v>
       </c>
     </row>
   </sheetData>
